--- a/docs/02_外部設計/外部設計成果物.xlsx
+++ b/docs/02_外部設計/外部設計成果物.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" state="visible" r:id="rId3"/>
@@ -489,44 +489,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,9 +617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,7 +633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="654840" y="185400"/>
-          <a:ext cx="5805000" cy="5564160"/>
+          <a:ext cx="5804640" cy="5563800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,101 +831,101 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -945,135 +949,135 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="68.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="109.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1095,7 +1099,7 @@
   </sheetPr>
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1153,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1178,161 +1182,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1383,263 +1387,263 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
     </row>
